--- a/metrics/ppm.xlsx
+++ b/metrics/ppm.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksay ghulam\Desktop\15OctSE\is203_g2t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reganseah\Desktop\IS203 Project\is203_g2t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10965" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration1" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration 2" sheetId="2" r:id="rId2"/>
     <sheet name="Iteration 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Iteration 4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
   <si>
     <t>Pair Programming Metrics</t>
   </si>
@@ -275,12 +276,54 @@
   </si>
   <si>
     <t>Update search section page</t>
+  </si>
+  <si>
+    <t>Alter SQL, JSP tables, Bidding page to show round 2 information</t>
+  </si>
+  <si>
+    <t>JavaDocs - BootStrap Validation</t>
+  </si>
+  <si>
+    <t>Create HomePage UI</t>
+  </si>
+  <si>
+    <t>Student View Completed Course Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug Iteration 3 Bugs </t>
+  </si>
+  <si>
+    <t>JSON DumpTable</t>
+  </si>
+  <si>
+    <t>JSONDeleteBid</t>
+  </si>
+  <si>
+    <t>JSONDropSection</t>
+  </si>
+  <si>
+    <t>JSONDumpTable</t>
+  </si>
+  <si>
+    <t>JSONStopRound</t>
+  </si>
+  <si>
+    <t>AWS Deployment and Debugging</t>
+  </si>
+  <si>
+    <t>JSON Common Validation Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSONCommonValidation Class </t>
+  </si>
+  <si>
+    <t>JSON DeleteBid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,6 +1046,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1038,6 +1123,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,7 +1178,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1278,6 +1399,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA27-4B85-9A37-B3B9B3239D1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1444,7 +1570,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1635,6 +1761,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E90-401B-931B-38B545B4F101}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1801,7 +1932,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1815,7 +1946,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1878,9 +2008,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Iteration 3'!$A$5:$A$8</c:f>
+              <c:f>'Iteration 3'!$A$5:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Login Page - servlet, controller, page</c:v>
                 </c:pt>
@@ -1892,16 +2022,109 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Bootstrap Contoller </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bid Controller</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Debug Bootstrap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Add Bid Servlet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Student view page(populate display:bids, enrolled classes, round info student details)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Student servlet to take in query from homepage</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Admin Homepage-Admin Viewpage(boostrap, start round,end round)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AdminDAO retrieve userid and password</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Admin Servlet-Admin servlet to take in query from homepage</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CourseCompleteDAO,SectionStudentDAO</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Drop Section Servlet-handle Input from &lt;view&gt; and response from controller</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BidDAO-sql Select stamtent from database to detrmine clearing price for specific section</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Student Servlet-handle update bids</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RoundDAO-Update ROund Status in Databse to started/ended</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RoundController calls ROundDAO to update round status to strated/ended</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Admin Servlet- takes in start round query, calls roundController method to start/stop</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>BidDAO- Update Bid status in database</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Search Sections View page</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>RoundController calls StudentController ,refund unsuccessful bids</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Debug- Debug Student Functions</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Debug Deployment</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>JavaDocs Controller </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>JavaDocs - DAO</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>JavaDocs-Entity</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Debugging Session</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Split start and stop button</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>student view results page</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Update search section page</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Alter SQL, JSP tables, Bidding page to show round 2 information</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>JavaDocs - BootStrap Validation</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Create HomePage UI</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Student View Completed Course Page</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 3'!$D$5:$D$8</c:f>
+              <c:f>'Iteration 3'!$D$5:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.93283582089552231</c:v>
                 </c:pt>
@@ -1913,10 +2136,108 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.78740157480314954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90909090909090917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43227665706051871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2875536480686696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68493150684931503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81300813008130079</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75187969924812026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94339622641509424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94339622641509424</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51020408163265307</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85470085470085477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85324232081911255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94936708860759489</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94786729857819907</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82417582417582413</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.96774193548387089</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91324200913242015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72992700729927007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60606060606060608</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0204081632653061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65359477124183007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF59-4E0E-9890-3D333B25A754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2034,6 +2355,350 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-584937408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47411469584001115"/>
+          <c:y val="0.18430216641922628"/>
+          <c:w val="0.47851810559078345"/>
+          <c:h val="0.7360119185122409"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration 4'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPI(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$7:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Debug Iteration 3 Bugs </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JSON DumpTable</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>JSON DumpTable</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JSONDeleteBid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JSONDropSection</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JSONDumpTable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JSONStopRound</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AWS Deployment and Debugging</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>JSON Common Validation Class</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JSONDropSection</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>JSONCommonValidation Class </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>JSON DeleteBid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$E$7:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.70175438596491224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0638297872340425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1560693641618498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92592592592592582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3513513513513513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64102564102564097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C3E-457D-9984-F350FA9D41C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-45710096"/>
+        <c:axId val="-45723152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-45710096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-45723152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-45723152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-45710096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2202,6 +2867,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3213,6 +3918,511 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3799,12 +5009,49 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>50006</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>278905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468313</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3900,6 +5147,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3935,6 +5199,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4093,26 +5374,26 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.75" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="41.73046875" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" customWidth="1"/>
+    <col min="5" max="5" width="27.86328125" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:13" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -4131,16 +5412,16 @@
       <c r="G4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -4157,19 +5438,19 @@
       <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -4186,17 +5467,17 @@
       <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="97" t="s">
+      <c r="G6" s="107"/>
+      <c r="H6" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +5506,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -4245,16 +5526,16 @@
       <c r="G8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:13" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +5562,7 @@
       <c r="L9" s="48"/>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="1:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -4299,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -4317,7 +5598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -4335,7 +5616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>16</v>
       </c>
@@ -4353,7 +5634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
@@ -4371,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>18</v>
       </c>
@@ -4389,7 +5670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
@@ -4407,7 +5688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>21</v>
       </c>
@@ -4425,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
         <v>22</v>
       </c>
@@ -4443,7 +5724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>23</v>
       </c>
@@ -4461,7 +5742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="30" t="s">
         <v>24</v>
       </c>
@@ -4479,7 +5760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
         <v>25</v>
       </c>
@@ -4497,7 +5778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="36" t="s">
         <v>26</v>
       </c>
@@ -4515,11 +5796,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="142.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="100.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:5" ht="142.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:5" ht="100.15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="H8:M8"/>
@@ -4550,28 +5831,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="A1:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="45.59765625" customWidth="1"/>
+    <col min="5" max="5" width="41.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:13" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A4" s="54" t="s">
         <v>19</v>
       </c>
@@ -4590,16 +5871,16 @@
       <c r="G4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="55" t="s">
         <v>39</v>
       </c>
@@ -4616,19 +5897,19 @@
       <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="56" t="s">
         <v>36</v>
       </c>
@@ -4645,17 +5926,17 @@
       <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="97" t="s">
+      <c r="G6" s="107"/>
+      <c r="H6" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="56" t="s">
         <v>37</v>
       </c>
@@ -4684,7 +5965,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="56" t="s">
         <v>38</v>
       </c>
@@ -4704,16 +5985,16 @@
       <c r="G8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="56" t="s">
         <v>40</v>
       </c>
@@ -4740,7 +6021,7 @@
       <c r="L9" s="48"/>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="57" t="s">
         <v>41</v>
       </c>
@@ -4758,7 +6039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="56" t="s">
         <v>43</v>
       </c>
@@ -4776,7 +6057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="56" t="s">
         <v>44</v>
       </c>
@@ -4794,7 +6075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="56" t="s">
         <v>45</v>
       </c>
@@ -4812,7 +6093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="56" t="s">
         <v>46</v>
       </c>
@@ -4830,7 +6111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="56" t="s">
         <v>47</v>
       </c>
@@ -4848,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="56" t="s">
         <v>48</v>
       </c>
@@ -4866,7 +6147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="56" t="s">
         <v>49</v>
       </c>
@@ -4884,7 +6165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="56" t="s">
         <v>50</v>
       </c>
@@ -4902,7 +6183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="59" t="s">
         <v>51</v>
       </c>
@@ -4920,37 +6201,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="50"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="50"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="50"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D24" s="52"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D25" s="52"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D26" s="52"/>
     </row>
   </sheetData>
@@ -4981,20 +6262,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="N41" sqref="A1:N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="45.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -5004,8 +6285,8 @@
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="78" t="s">
         <v>19</v>
       </c>
@@ -5033,7 +6314,7 @@
       <c r="L4" s="65"/>
       <c r="M4" s="66"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="83" t="s">
         <v>52</v>
       </c>
@@ -5062,7 +6343,7 @@
       <c r="L5" s="70"/>
       <c r="M5" s="71"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="83" t="s">
         <v>53</v>
       </c>
@@ -5073,7 +6354,7 @@
         <v>0.72</v>
       </c>
       <c r="D6" s="53">
-        <f t="shared" ref="D6:D35" si="0">(B6/C6)</f>
+        <f t="shared" ref="D6:D39" si="0">(B6/C6)</f>
         <v>0.69444444444444442</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -5089,7 +6370,7 @@
       <c r="L6" s="73"/>
       <c r="M6" s="74"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="83" t="s">
         <v>54</v>
       </c>
@@ -5118,7 +6399,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="83" t="s">
         <v>55</v>
       </c>
@@ -5147,7 +6428,7 @@
       <c r="L8" s="76"/>
       <c r="M8" s="77"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="82" t="s">
         <v>56</v>
       </c>
@@ -5174,7 +6455,7 @@
       <c r="L9" s="73"/>
       <c r="M9" s="74"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="82" t="s">
         <v>57</v>
       </c>
@@ -5192,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="82" t="s">
         <v>58</v>
       </c>
@@ -5210,7 +6491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="82" t="s">
         <v>59</v>
       </c>
@@ -5228,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="82" t="s">
         <v>60</v>
       </c>
@@ -5246,7 +6527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="82" t="s">
         <v>62</v>
       </c>
@@ -5264,7 +6545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="82" t="s">
         <v>61</v>
       </c>
@@ -5282,7 +6563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="82" t="s">
         <v>63</v>
       </c>
@@ -5300,14 +6581,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="80">
+      <c r="B17" s="21">
         <v>0.5</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="21">
         <v>0.73</v>
       </c>
       <c r="D17" s="53">
@@ -5318,14 +6599,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="80">
+      <c r="B18" s="21">
         <v>0.5</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="21">
         <v>1.6</v>
       </c>
       <c r="D18" s="53">
@@ -5336,14 +6617,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="80">
+      <c r="B19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="21">
         <v>1.23</v>
       </c>
       <c r="D19" s="53">
@@ -5354,14 +6635,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="80">
+      <c r="B20" s="21">
         <v>1</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="21">
         <v>1.33</v>
       </c>
       <c r="D20" s="53">
@@ -5372,14 +6653,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="80">
+      <c r="B21" s="21">
         <v>0.5</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="21">
         <v>0.53</v>
       </c>
       <c r="D21" s="53">
@@ -5390,14 +6671,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="80">
+      <c r="B22" s="21">
         <v>0.5</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="21">
         <v>0.53</v>
       </c>
       <c r="D22" s="53">
@@ -5408,14 +6689,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="80">
+      <c r="B23" s="21">
         <v>0.5</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="21">
         <v>0.98</v>
       </c>
       <c r="D23" s="53">
@@ -5426,14 +6707,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="80">
+      <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="21">
         <v>1.17</v>
       </c>
       <c r="D24" s="53">
@@ -5444,14 +6725,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="28">
         <v>2.5</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="28">
         <v>2.93</v>
       </c>
       <c r="D25" s="53">
@@ -5462,14 +6743,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="28">
         <v>1.5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="28">
         <v>1.58</v>
       </c>
       <c r="D26" s="53">
@@ -5480,14 +6761,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="80">
+      <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="21">
         <v>4.22</v>
       </c>
       <c r="D27" s="53">
@@ -5498,14 +6779,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="28">
         <v>3</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="28">
         <v>2</v>
       </c>
       <c r="D28" s="53">
@@ -5516,14 +6797,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="28">
         <v>1.5</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="28">
         <v>1.82</v>
       </c>
       <c r="D29" s="53">
@@ -5534,14 +6815,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="80">
+      <c r="B30" s="21">
         <v>1.5</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="21">
         <v>1.55</v>
       </c>
       <c r="D30" s="53">
@@ -5552,14 +6833,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="28">
         <v>0.5</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="28">
         <v>0.8</v>
       </c>
       <c r="D31" s="53">
@@ -5570,14 +6851,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="28">
         <v>4</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="28">
         <v>4.38</v>
       </c>
       <c r="D32" s="53">
@@ -5588,14 +6869,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="28">
         <v>1</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="21">
         <v>1.3</v>
       </c>
       <c r="D33" s="53">
@@ -5606,14 +6887,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="28">
         <v>1</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="21">
         <v>1.3</v>
       </c>
       <c r="D34" s="53">
@@ -5624,14 +6905,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="28">
         <v>1</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="21">
         <v>1.37</v>
       </c>
       <c r="D35" s="53">
@@ -5639,6 +6920,78 @@
         <v>0.72992700729927007</v>
       </c>
       <c r="E35" s="84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="117">
+        <v>1</v>
+      </c>
+      <c r="C36" s="117">
+        <v>1.65</v>
+      </c>
+      <c r="D36" s="115">
+        <f t="shared" si="0"/>
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="E36" s="116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="117">
+        <v>1.5</v>
+      </c>
+      <c r="C37" s="117">
+        <v>1.47</v>
+      </c>
+      <c r="D37" s="115">
+        <f t="shared" si="0"/>
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="E37" s="116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="117">
+        <v>1</v>
+      </c>
+      <c r="C38" s="117">
+        <v>1.53</v>
+      </c>
+      <c r="D38" s="115">
+        <f t="shared" si="0"/>
+        <v>0.65359477124183007</v>
+      </c>
+      <c r="E38" s="116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="117">
+        <v>0.45</v>
+      </c>
+      <c r="D39" s="115">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E39" s="116" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5658,4 +7011,380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="6" max="6" width="32.73046875" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="B3" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+    </row>
+    <row r="5" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="2:14" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
+    </row>
+    <row r="7" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(C7/D7)</f>
+        <v>0.70175438596491224</v>
+      </c>
+      <c r="F7" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="95"/>
+    </row>
+    <row r="8" spans="2:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E8" s="11">
+        <f>(C8/D8)</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="92"/>
+      <c r="I8" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98"/>
+    </row>
+    <row r="9" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9:E18" si="0">(C9/D9)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+    </row>
+    <row r="10" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.88</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="F10" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
+    </row>
+    <row r="11" spans="2:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98"/>
+    </row>
+    <row r="12" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.73</v>
+      </c>
+      <c r="E13" s="53">
+        <f t="shared" si="0"/>
+        <v>1.1560693641618498</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="E14" s="53">
+        <f t="shared" si="0"/>
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="E15" s="53">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="F15" s="125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="E16" s="53">
+        <f t="shared" si="0"/>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="E17" s="53">
+        <f t="shared" si="0"/>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="F17" s="125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="114" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="53">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F18" s="125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="2:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E25" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>